--- a/pred_ohlcv/54_21/2020-01-16 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ABT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>13248.925</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -522,7 +522,7 @@
         <v>12748.925</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>12748.925</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>12748.925</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>12748.925</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>12748.925</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,7 +756,7 @@
         <v>29920.545</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>29920.545</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>29920.545</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>37753.545</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -964,7 +964,7 @@
         <v>39443.2597</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>39902.41929999999</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>40061.71799999999</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>54871.35639999999</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>67307.17129999999</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>184220.7051</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>184220.7051</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>182723.6695</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>177464.8816</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>177464.8816</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>177464.8816</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>196627.5384</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>196627.5384</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>198756.5384</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>198756.5384</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>198756.5384</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>201258.0996</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>201193.0996</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>201193.0996</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>200026.4277</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>199946.4277</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>199733.9257</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>195746.3342</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>194726.3342</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>194217.2272999999</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>194937.8804999999</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>193931.8804999999</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>193693.8881</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>193193.8881</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>192053.8180999999</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>191203.8180999999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>191107.7328999999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>201627.7194999999</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>202127.7194999999</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>202127.7194999999</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>202127.7194999999</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>205937.7194999999</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>205871.3795</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>205881.3795</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>205881.2726999999</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>205535.0386999999</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>206035.0386999999</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ABT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>13248.925</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -522,7 +522,7 @@
         <v>12748.925</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>12748.925</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>12748.925</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>12748.925</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>12748.925</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>29920.545</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>29920.545</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>29920.545</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>29920.545</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>29920.545</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>37753.545</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>37457.446</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>40821.446</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>39443.2597</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>39902.41929999999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>40711.41929999999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>39861.71799999999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>40061.71799999999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>184220.7051</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>184220.7051</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>182723.6695</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>177464.8816</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>177464.8816</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>177464.8816</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>196627.5384</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>196627.5384</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>198756.5384</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>198756.5384</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>198756.5384</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>201193.0996</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>200026.4277</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>199946.4277</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>199733.9257</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>195746.3342</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>194726.3342</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>194217.2272999999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>191311.4163</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>194937.8804999999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>193931.8804999999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>193693.8881</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>193193.8881</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>192053.8180999999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>191203.8180999999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>191147.9545999999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>201627.7194999999</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>202127.7194999999</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>202127.7194999999</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>202127.7194999999</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>205937.7194999999</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>205871.3795</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>205881.3795</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>205881.2726999999</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>205535.0386999999</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
